--- a/medicine/Psychotrope/Brasserie_Valaisanne/Brasserie_Valaisanne.xlsx
+++ b/medicine/Psychotrope/Brasserie_Valaisanne/Brasserie_Valaisanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fondée en 1865, la Brasserie Valaisanne se trouve à Sion, capitale du canton du Valais. Première brasserie de la région, elle a une capacité de brassage de 90 000 hectolitres de bière par an. Elle appartient depuis 1972 à Feldschlösschen Boissons SA, une filiale du groupe Carlsberg.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1802 c’est à cette date qu’apparaissent les premières mentions écrites de la bière en Valais. Les autorités de l’époque promulguent une loi interdisant formellement l’importation de bière, considérant que «ce breuvage inhabituel ne peut que nuire au pays du vin». Ce qui signifie donc que la bière devait déjà compter de nombreux amateurs en Valais.
 1812 Bramois compte déjà une brasserie en activité. À une date indéterminée, un brasseur astucieux avait réussi à contourner la loi pour s’installer en plein cœur des vignes. Même les disciples les plus fervents de Bacchus finirent par s’habituer à l’idée que jus de raisin et bière n’étaient pas incompatibles.
@@ -560,7 +574,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Blonde 25 est la marque phare de la brasserie.
 Son nom provient de deux de ses caractéristiques :
